--- a/medicine/Enfance/Mur_Lafferty/Mur_Lafferty.xlsx
+++ b/medicine/Enfance/Mur_Lafferty/Mur_Lafferty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mur Lafferty, née le 25 juillet 1973 à Durham en Caroline du Nord, est une romancière et nouvelliste américaine de science-fiction et de fantasy.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,22 +553,200 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série The Shambling Guides
-(en) The Shambling Guide to New York City, 2013
-(en) Ghost Train to New Orleans, 2014
-Série The Midsolar Murders
-(en) Station Eternity, 2022
-(en) Chaos Terminal, 2023
-Univers Star Wars
-Novélisation de film
-Solo: A Star Wars Story, Fleuve, 2019 ((en) Solo: A Star Wars Story, 2018)  (ISBN 978-2-265-14406-4)Réédition, Pocket, coll. « Star Wars » no 174, 20209  (ISBN 978-2-266-30733-8)
-Univers Minecraft
-Les Carnets perdus, Castelmore, 2019 ((en) The Lost Journals, 2019)
-Romans indépendants
-(en) Playing for Keeps, 2007
-(en) Six Wakes, 2017
-Recueils de nouvelles
-(en) The Afterlife Series, 2014</t>
+          <t>Série The Shambling Guides</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) The Shambling Guide to New York City, 2013
+(en) Ghost Train to New Orleans, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série The Midsolar Murders</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Station Eternity, 2022
+(en) Chaos Terminal, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Novélisation de film</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Solo: A Star Wars Story, Fleuve, 2019 ((en) Solo: A Star Wars Story, 2018)  (ISBN 978-2-265-14406-4)Réédition, Pocket, coll. « Star Wars » no 174, 20209  (ISBN 978-2-266-30733-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Univers Minecraft</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Carnets perdus, Castelmore, 2019 ((en) The Lost Journals, 2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Playing for Keeps, 2007
+(en) Six Wakes, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mur_Lafferty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) The Afterlife Series, 2014</t>
         </is>
       </c>
     </row>
